--- a/data/trans_orig/PLURIPATOLOGIA-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{93E7FC5E-2AFB-4677-8467-E1B3F50C205C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF319B1-4F1E-4325-A755-F27A2B91320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{A5EFDD64-7D97-4ED8-81EF-3A9DA3BFB87C}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{266F4658-C10A-421B-B8B8-F9C155253252}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,1198 +80,1252 @@
     <t>0,0%</t>
   </si>
   <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,43%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>19,99%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>80,01%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>97,83%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
     <t>6,22%</t>
   </si>
   <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,1%</t>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,81%</t>
+  </si>
+  <si>
+    <t>97,03%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>89,14%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
   </si>
   <si>
     <t>93,78%</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>87,29%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,83%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>19,73%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>83,6%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>80,27%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>86,78%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>25,68%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>51,07%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
   </si>
   <si>
     <t>10,96%</t>
   </si>
   <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
+    <t>36,73%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>74,32%</t>
+  </si>
+  <si>
+    <t>48,93%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>63,27%</t>
   </si>
   <si>
     <t>89,04%</t>
   </si>
   <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>95,2%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>13,3%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,07%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>71,45%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,06%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>83,6%</t>
-  </si>
-  <si>
-    <t>81,12%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>86,09%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>89,45%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>25,68%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>74,32%</t>
-  </si>
-  <si>
-    <t>49,7%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>10,5%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>89,5%</t>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>79,36%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>83,94%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>27,31%</t>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>72,69%</t>
+    <t>71,77%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>81,04%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>87,4%</t>
   </si>
 </sst>
 </file>
@@ -1683,7 +1737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E6FBD46-7F41-407B-A6B7-02C6A7C9D17F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32E7E2-FA5C-43AA-A212-71FBAC673337}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2120,10 +2174,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2171,10 +2225,10 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
@@ -2612,13 +2666,13 @@
         <v>338386</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2633,13 +2687,13 @@
         <v>3164706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3079</v>
@@ -2648,28 +2702,28 @@
         <v>3152649</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6177</v>
       </c>
       <c r="N20" s="7">
-        <v>6317354</v>
+        <v>6317355</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2711,7 +2765,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2725,7 +2779,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2746,7 +2800,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6A23DB5-399C-460D-ADA4-E189BC342907}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F10BCA4-CE2A-43D0-A623-2D86D32E1EF6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2763,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2870,13 +2924,13 @@
         <v>1724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2885,13 +2939,13 @@
         <v>9703</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2900,13 +2954,13 @@
         <v>11427</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>88</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,10 +2975,10 @@
         <v>114041</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2936,13 +2990,13 @@
         <v>102202</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -2951,13 +3005,13 @@
         <v>216243</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3025,13 +3079,13 @@
         <v>25457</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -3040,13 +3094,13 @@
         <v>57166</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -3055,13 +3109,13 @@
         <v>82623</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>144</v>
+        <v>75</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,13 +3130,13 @@
         <v>562247</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>499</v>
@@ -3091,13 +3145,13 @@
         <v>527979</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1027</v>
@@ -3106,13 +3160,13 @@
         <v>1090226</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>154</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3183,10 +3237,10 @@
         <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>36</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -3195,13 +3249,13 @@
         <v>93829</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -3210,13 +3264,13 @@
         <v>130944</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,13 +3285,13 @@
         <v>980832</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>46</v>
+        <v>166</v>
       </c>
       <c r="H11" s="7">
         <v>854</v>
@@ -3246,13 +3300,13 @@
         <v>938355</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1756</v>
@@ -3261,13 +3315,13 @@
         <v>1919187</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3389,13 @@
         <v>29129</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3350,13 +3404,13 @@
         <v>72214</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -3365,13 +3419,13 @@
         <v>101343</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,13 +3440,13 @@
         <v>728494</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>638</v>
@@ -3401,13 +3455,13 @@
         <v>704960</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -3416,13 +3470,13 @@
         <v>1433454</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3490,13 +3544,13 @@
         <v>36427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H16" s="7">
         <v>109</v>
@@ -3505,13 +3559,13 @@
         <v>118094</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3520,13 +3574,13 @@
         <v>154521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,13 +3595,13 @@
         <v>911312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H17" s="7">
         <v>894</v>
@@ -3556,13 +3610,13 @@
         <v>933807</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
@@ -3571,13 +3625,13 @@
         <v>1845119</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3645,13 +3699,13 @@
         <v>129852</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>323</v>
@@ -3660,13 +3714,13 @@
         <v>351006</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>441</v>
@@ -3675,13 +3729,13 @@
         <v>480858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3696,13 +3750,13 @@
         <v>3296927</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2975</v>
@@ -3711,13 +3765,13 @@
         <v>3207303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>6066</v>
@@ -3726,13 +3780,13 @@
         <v>6504230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3788,7 +3842,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3809,7 +3863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE974F5-D8FE-4FA3-A56A-BEA62C26F951}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F252BEA-9634-4FE1-B007-BB13BBD46436}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3826,7 +3880,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3933,13 +3987,13 @@
         <v>8462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -3948,13 +4002,13 @@
         <v>14052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -3963,13 +4017,13 @@
         <v>22514</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>95</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4038,13 @@
         <v>108084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -3999,13 +4053,13 @@
         <v>99308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -4014,13 +4068,13 @@
         <v>207392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4088,13 +4142,13 @@
         <v>20177</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -4103,13 +4157,13 @@
         <v>60212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4118,13 +4172,13 @@
         <v>80388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,13 +4193,13 @@
         <v>538077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>196</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -4154,13 +4208,13 @@
         <v>499267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4169,13 +4223,13 @@
         <v>1037345</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>202</v>
+        <v>258</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4243,13 +4297,13 @@
         <v>31958</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -4258,13 +4312,13 @@
         <v>92794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4273,13 +4327,13 @@
         <v>124752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>157</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>222</v>
+        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,13 +4348,13 @@
         <v>990473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="H11" s="7">
         <v>900</v>
@@ -4309,13 +4363,13 @@
         <v>950119</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M11" s="7">
         <v>1818</v>
@@ -4324,13 +4378,13 @@
         <v>1940592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>265</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4398,13 +4452,13 @@
         <v>25007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4413,13 +4467,13 @@
         <v>66238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4428,13 +4482,13 @@
         <v>91245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,13 +4503,13 @@
         <v>734545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>678</v>
@@ -4464,13 +4518,13 @@
         <v>718773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1349</v>
@@ -4479,13 +4533,13 @@
         <v>1453318</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,13 +4607,13 @@
         <v>33880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>285</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4568,13 +4622,13 @@
         <v>113895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>286</v>
+        <v>293</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -4583,13 +4637,13 @@
         <v>147775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>289</v>
+        <v>296</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4658,13 @@
         <v>903687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>291</v>
+        <v>137</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="H17" s="7">
         <v>862</v>
@@ -4619,13 +4673,13 @@
         <v>929884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>293</v>
+        <v>300</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>294</v>
+        <v>301</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="M17" s="7">
         <v>1761</v>
@@ -4634,13 +4688,13 @@
         <v>1833571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>296</v>
+        <v>303</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>220</v>
+        <v>305</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4708,13 +4762,13 @@
         <v>119484</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -4723,13 +4777,13 @@
         <v>347191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="M19" s="7">
         <v>424</v>
@@ -4738,13 +4792,13 @@
         <v>466675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>158</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4813,13 @@
         <v>3274866</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>3035</v>
@@ -4774,13 +4828,13 @@
         <v>3197351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>6145</v>
@@ -4789,13 +4843,13 @@
         <v>6472217</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>167</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4851,7 +4905,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4872,7 +4926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB0E624C-AABF-4409-A036-A30944BA84AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEF3010-3718-4C62-8A29-F88E14CB116C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4889,7 +4943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,13 +5050,13 @@
         <v>9480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
+        <v>113</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -5011,13 +5065,13 @@
         <v>29270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5026,13 +5080,13 @@
         <v>38750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>321</v>
+        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,13 +5101,13 @@
         <v>92502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>196</v>
+        <v>121</v>
       </c>
       <c r="H5" s="7">
         <v>176</v>
@@ -5062,13 +5116,13 @@
         <v>101463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="M5" s="7">
         <v>278</v>
@@ -5077,13 +5131,13 @@
         <v>193965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>330</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5205,13 @@
         <v>59275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -5166,13 +5220,13 @@
         <v>101696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
@@ -5181,13 +5235,13 @@
         <v>160971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5256,13 @@
         <v>490548</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="H8" s="7">
         <v>784</v>
@@ -5217,13 +5271,13 @@
         <v>518271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="M8" s="7">
         <v>1311</v>
@@ -5232,13 +5286,13 @@
         <v>1008819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5306,13 +5360,13 @@
         <v>84681</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="H10" s="7">
         <v>289</v>
@@ -5321,13 +5375,13 @@
         <v>166521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="M10" s="7">
         <v>403</v>
@@ -5336,13 +5390,13 @@
         <v>251202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5411,13 @@
         <v>954567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="H11" s="7">
         <v>1228</v>
@@ -5372,13 +5426,13 @@
         <v>893558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>2078</v>
@@ -5387,13 +5441,13 @@
         <v>1848125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>330</v>
+        <v>373</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5461,13 +5515,13 @@
         <v>56094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -5476,13 +5530,13 @@
         <v>224512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -5491,13 +5545,13 @@
         <v>280606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>256</v>
+        <v>382</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5566,13 @@
         <v>672678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -5527,13 +5581,13 @@
         <v>649859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="M14" s="7">
         <v>1481</v>
@@ -5542,13 +5596,13 @@
         <v>1322536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>361</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>378</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>262</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5616,13 +5670,13 @@
         <v>84891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>222</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -5631,13 +5685,13 @@
         <v>209585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -5646,13 +5700,13 @@
         <v>294476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,13 +5721,13 @@
         <v>880512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>231</v>
+        <v>404</v>
       </c>
       <c r="H17" s="7">
         <v>1247</v>
@@ -5682,13 +5736,13 @@
         <v>940847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="M17" s="7">
         <v>2139</v>
@@ -5697,13 +5751,13 @@
         <v>1821359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>392</v>
+        <v>408</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5771,13 +5825,13 @@
         <v>294421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>396</v>
+        <v>412</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="H19" s="7">
         <v>1064</v>
@@ -5786,13 +5840,13 @@
         <v>731583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>382</v>
+        <v>415</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="M19" s="7">
         <v>1456</v>
@@ -5801,13 +5855,13 @@
         <v>1026004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5876,13 @@
         <v>3090807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="H20" s="7">
         <v>4303</v>
@@ -5837,28 +5891,28 @@
         <v>3103998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>407</v>
+        <v>424</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>7287</v>
       </c>
       <c r="N20" s="7">
-        <v>6194805</v>
+        <v>6194804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>408</v>
+        <v>426</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>409</v>
+        <v>427</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>410</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5900,7 +5954,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220809</v>
+        <v>7220808</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -5914,7 +5968,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PLURIPATOLOGIA-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6DF319B1-4F1E-4325-A755-F27A2B91320B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C23AF51-0D46-4222-80D5-CA6E1A438B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{266F4658-C10A-421B-B8B8-F9C155253252}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F89AB4E-FCAC-4846-A719-318DC8F332FF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -80,25 +80,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,51%</t>
+    <t>6,64%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
   </si>
   <si>
     <t>2,47%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>98,1%</t>
   </si>
   <si>
-    <t>93,49%</t>
+    <t>93,36%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,49 +116,49 @@
     <t>96,95%</t>
   </si>
   <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
   </si>
   <si>
     <t>97,53%</t>
   </si>
   <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>99,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>2,62%</t>
   </si>
   <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
   </si>
   <si>
     <t>3,91%</t>
   </si>
   <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
   </si>
   <si>
     <t>3,26%</t>
   </si>
   <si>
-    <t>2,34%</t>
+    <t>2,35%</t>
   </si>
   <si>
     <t>4,4%</t>
@@ -167,19 +167,19 @@
     <t>97,38%</t>
   </si>
   <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
   </si>
   <si>
     <t>96,09%</t>
   </si>
   <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
   </si>
   <si>
     <t>96,74%</t>
@@ -188,25 +188,25 @@
     <t>95,6%</t>
   </si>
   <si>
-    <t>97,66%</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>5,05%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>5,87%</t>
   </si>
   <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
   </si>
   <si>
     <t>4,78%</t>
@@ -215,847 +215,853 @@
     <t>3,92%</t>
   </si>
   <si>
-    <t>5,8%</t>
+    <t>5,89%</t>
   </si>
   <si>
     <t>96,32%</t>
   </si>
   <si>
-    <t>94,95%</t>
+    <t>94,73%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
   </si>
   <si>
     <t>95,22%</t>
   </si>
   <si>
-    <t>94,2%</t>
+    <t>94,11%</t>
   </si>
   <si>
     <t>96,08%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>3,49%</t>
   </si>
   <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
+    <t>5,35%</t>
   </si>
   <si>
     <t>10,21%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>6,86%</t>
   </si>
   <si>
-    <t>5,55%</t>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>97,16%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>84,09%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>97,48%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>97,5%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,24%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,07%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
   </si>
   <si>
     <t>8,37%</t>
   </si>
   <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
   </si>
   <si>
     <t>91,63%</t>
   </si>
   <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,14%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>87,08%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>91,19%</t>
+  </si>
+  <si>
+    <t>93,73%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
   </si>
   <si>
     <t>4,15%</t>
   </si>
   <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>95,85%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,3%</t>
   </si>
   <si>
     <t>5,61%</t>
   </si>
   <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>22,39%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>94,39%</t>
   </si>
   <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>13,12%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>19,99%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>86,88%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>80,01%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>97,79%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>97,83%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
+    <t>77,61%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>82,02%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
   </si>
   <si>
     <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>95,81%</t>
-  </si>
-  <si>
-    <t>97,03%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>89,14%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>22,39%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
   </si>
   <si>
     <t>10,78%</t>
@@ -1737,7 +1743,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A32E7E2-FA5C-43AA-A212-71FBAC673337}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF64EB-FFC4-4F4B-9102-6FB40E01EB1A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2329,10 +2335,10 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -2341,13 +2347,13 @@
         <v>69826</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2356,13 +2362,13 @@
         <v>93497</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2377,13 +2383,13 @@
         <v>654838</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="H14" s="7">
         <v>625</v>
@@ -2392,13 +2398,13 @@
         <v>614015</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1243</v>
@@ -2407,13 +2413,13 @@
         <v>1268853</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2469,7 +2475,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2481,13 +2487,13 @@
         <v>35402</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2496,13 +2502,13 @@
         <v>73912</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2511,13 +2517,13 @@
         <v>109314</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2532,13 +2538,13 @@
         <v>906820</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -2547,13 +2553,13 @@
         <v>964700</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1880</v>
@@ -2562,13 +2568,13 @@
         <v>1871520</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,13 +2642,13 @@
         <v>111838</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -2651,13 +2657,13 @@
         <v>226549</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>334</v>
@@ -2666,13 +2672,13 @@
         <v>338386</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2684,16 +2690,16 @@
         <v>3098</v>
       </c>
       <c r="D20" s="7">
-        <v>3164706</v>
+        <v>3164705</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H20" s="7">
         <v>3079</v>
@@ -2702,13 +2708,13 @@
         <v>3152649</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M20" s="7">
         <v>6177</v>
@@ -2717,13 +2723,13 @@
         <v>6317355</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2735,7 +2741,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2779,7 +2785,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2800,7 +2806,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F10BCA4-CE2A-43D0-A623-2D86D32E1EF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2592DDB-CD3C-44BE-8A51-D76E5B531FAD}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2817,7 +2823,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2924,13 +2930,13 @@
         <v>1724</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2939,13 +2945,13 @@
         <v>9703</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2954,13 +2960,13 @@
         <v>11427</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2975,10 +2981,10 @@
         <v>114041</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2990,13 +2996,13 @@
         <v>102202</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -3005,13 +3011,13 @@
         <v>216243</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,10 +3118,10 @@
         <v>145</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,10 +3169,10 @@
         <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,7 +3401,7 @@
         <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3404,13 +3410,13 @@
         <v>72214</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -3419,13 +3425,13 @@
         <v>101343</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3446,13 @@
         <v>728494</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>638</v>
@@ -3455,13 +3461,13 @@
         <v>704960</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1301</v>
@@ -3470,13 +3476,13 @@
         <v>1433454</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3532,7 +3538,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3547,10 +3553,10 @@
         <v>173</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H16" s="7">
         <v>109</v>
@@ -3559,13 +3565,13 @@
         <v>118094</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M16" s="7">
         <v>141</v>
@@ -3574,13 +3580,13 @@
         <v>154521</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3601,13 @@
         <v>911312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>894</v>
@@ -3610,13 +3616,13 @@
         <v>933807</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
@@ -3625,13 +3631,13 @@
         <v>1845119</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3705,13 @@
         <v>129852</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H19" s="7">
         <v>323</v>
@@ -3714,13 +3720,13 @@
         <v>351006</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>441</v>
@@ -3729,13 +3735,13 @@
         <v>480858</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3756,13 @@
         <v>3296927</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>2975</v>
@@ -3765,13 +3771,13 @@
         <v>3207303</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>6066</v>
@@ -3780,13 +3786,13 @@
         <v>6504230</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>223</v>
+        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3842,7 +3848,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3863,7 +3869,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F252BEA-9634-4FE1-B007-BB13BBD46436}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3C2972-1702-4003-B3A1-DC8F8D1C0C9F}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3880,7 +3886,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3987,13 +3993,13 @@
         <v>8462</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -4002,13 +4008,13 @@
         <v>14052</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="M4" s="7">
         <v>23</v>
@@ -4017,13 +4023,13 @@
         <v>22514</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>229</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4044,13 @@
         <v>108084</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H5" s="7">
         <v>101</v>
@@ -4053,13 +4059,13 @@
         <v>99308</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -4068,13 +4074,13 @@
         <v>207392</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,13 +4148,13 @@
         <v>20177</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -4157,13 +4163,13 @@
         <v>60212</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>247</v>
+        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4172,13 +4178,13 @@
         <v>80388</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4193,13 +4199,13 @@
         <v>538077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -4208,13 +4214,13 @@
         <v>499267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>255</v>
+        <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4223,13 +4229,13 @@
         <v>1037345</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,13 +4303,13 @@
         <v>31958</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>208</v>
+        <v>256</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -4312,13 +4318,13 @@
         <v>92794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4327,13 +4333,13 @@
         <v>124752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>157</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,13 +4354,13 @@
         <v>990473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
         <v>900</v>
@@ -4363,13 +4369,13 @@
         <v>950119</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>97</v>
       </c>
       <c r="M11" s="7">
         <v>1818</v>
@@ -4378,13 +4384,13 @@
         <v>1940592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>165</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,13 +4458,13 @@
         <v>25007</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4467,13 +4473,13 @@
         <v>66238</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4482,13 +4488,13 @@
         <v>91245</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,13 +4509,13 @@
         <v>734545</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>283</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="H14" s="7">
         <v>678</v>
@@ -4518,13 +4524,13 @@
         <v>718773</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>286</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M14" s="7">
         <v>1349</v>
@@ -4533,13 +4539,13 @@
         <v>1453318</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>289</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,7 +4601,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4607,13 +4613,13 @@
         <v>33880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4622,13 +4628,13 @@
         <v>113895</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>294</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -4637,13 +4643,13 @@
         <v>147775</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4658,10 +4664,10 @@
         <v>903687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>137</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
         <v>299</v>
@@ -4783,7 +4789,7 @@
         <v>310</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M19" s="7">
         <v>424</v>
@@ -4792,13 +4798,13 @@
         <v>466675</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4813,13 +4819,13 @@
         <v>3274866</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>317</v>
       </c>
       <c r="H20" s="7">
         <v>3035</v>
@@ -4828,13 +4834,13 @@
         <v>3197351</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="M20" s="7">
         <v>6145</v>
@@ -4843,13 +4849,13 @@
         <v>6472217</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +4911,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4926,7 +4932,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BEF3010-3718-4C62-8A29-F88E14CB116C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E61905-71DA-417E-B1AE-E3661372CCEC}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4943,7 +4949,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5050,13 +5056,13 @@
         <v>9480</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>326</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -5065,13 +5071,13 @@
         <v>29270</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>327</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5080,10 +5086,10 @@
         <v>38750</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>331</v>
@@ -5107,7 +5113,7 @@
         <v>333</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>121</v>
+        <v>334</v>
       </c>
       <c r="H5" s="7">
         <v>176</v>
@@ -5116,13 +5122,13 @@
         <v>101463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="M5" s="7">
         <v>278</v>
@@ -5131,13 +5137,13 @@
         <v>193965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5205,13 +5211,13 @@
         <v>59275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -5220,13 +5226,13 @@
         <v>101696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
@@ -5235,13 +5241,13 @@
         <v>160971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5256,13 +5262,13 @@
         <v>490548</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
         <v>784</v>
@@ -5271,13 +5277,13 @@
         <v>518271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
         <v>1311</v>
@@ -5286,13 +5292,13 @@
         <v>1008819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5360,13 +5366,13 @@
         <v>84681</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
         <v>289</v>
@@ -5375,13 +5381,13 @@
         <v>166521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="M10" s="7">
         <v>403</v>
@@ -5390,13 +5396,13 @@
         <v>251202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5411,13 +5417,13 @@
         <v>954567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H11" s="7">
         <v>1228</v>
@@ -5426,13 +5432,13 @@
         <v>893558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="M11" s="7">
         <v>2078</v>
@@ -5441,13 +5447,13 @@
         <v>1848125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5515,13 +5521,13 @@
         <v>56094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -5530,13 +5536,13 @@
         <v>224512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -5545,13 +5551,13 @@
         <v>280606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5566,13 +5572,13 @@
         <v>672678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -5581,13 +5587,13 @@
         <v>649859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M14" s="7">
         <v>1481</v>
@@ -5596,13 +5602,13 @@
         <v>1322536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5658,7 +5664,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5670,13 +5676,13 @@
         <v>84891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -5685,13 +5691,13 @@
         <v>209585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -5700,13 +5706,13 @@
         <v>294476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5721,13 +5727,13 @@
         <v>880512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="H17" s="7">
         <v>1247</v>
@@ -5736,13 +5742,13 @@
         <v>940847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="M17" s="7">
         <v>2139</v>
@@ -5751,13 +5757,13 @@
         <v>1821359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5825,13 +5831,13 @@
         <v>294421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="H19" s="7">
         <v>1064</v>
@@ -5840,13 +5846,13 @@
         <v>731583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M19" s="7">
         <v>1456</v>
@@ -5855,13 +5861,13 @@
         <v>1026004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5876,13 +5882,13 @@
         <v>3090807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H20" s="7">
         <v>4303</v>
@@ -5891,13 +5897,13 @@
         <v>3103998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M20" s="7">
         <v>7287</v>
@@ -5906,13 +5912,13 @@
         <v>6194804</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5968,7 +5974,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/PLURIPATOLOGIA-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/PLURIPATOLOGIA-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C23AF51-0D46-4222-80D5-CA6E1A438B71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1BAAAA83-CF4D-4FCE-BF3B-36CD6CDBE05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3F89AB4E-FCAC-4846-A719-318DC8F332FF}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5BF779C7-F8F5-4EC6-B369-8CE9AD40890F}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="411">
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>6,64%</t>
+    <t>6,22%</t>
   </si>
   <si>
     <t>3,05%</t>
@@ -89,922 +89,898 @@
     <t>0,77%</t>
   </si>
   <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>96,95%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>99,23%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
     <t>7,59%</t>
   </si>
   <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>96,95%</t>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>96,32%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
   </si>
   <si>
     <t>92,41%</t>
   </si>
   <si>
-    <t>99,23%</t>
-  </si>
-  <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>87,29%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>2,83%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>92,88%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>90,91%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>93,71%</t>
+  </si>
+  <si>
+    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>19,73%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>87,6%</t>
+  </si>
+  <si>
+    <t>80,27%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
   </si>
   <si>
     <t>2,57%</t>
   </si>
   <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>98,4%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>13,12%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
   </si>
   <si>
     <t>97,43%</t>
   </si>
   <si>
-    <t>96,74%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>96,32%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>8,3%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>96,24%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>92,88%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>97,16%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>84,09%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>97,27%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>97,48%</t>
-  </si>
-  <si>
-    <t>90,91%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>88,24%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>Población con cinco o más enfermedades crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>12,4%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>96,43%</t>
-  </si>
-  <si>
-    <t>87,6%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>85,43%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>5,73%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>93,96%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>97,55%</t>
-  </si>
-  <si>
     <t>89,09%</t>
   </si>
   <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
+    <t>86,88%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>91,19%</t>
-  </si>
-  <si>
-    <t>93,73%</t>
+    <t>91,27%</t>
   </si>
   <si>
     <t>3,52%</t>
   </si>
   <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
   </si>
   <si>
     <t>9,8%</t>
   </si>
   <si>
-    <t>8,69%</t>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
   </si>
   <si>
     <t>6,73%</t>
   </si>
   <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
+    <t>6,13%</t>
   </si>
   <si>
     <t>96,48%</t>
   </si>
   <si>
-    <t>95,85%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
+    <t>95,82%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
   </si>
   <si>
     <t>90,2%</t>
   </si>
   <si>
-    <t>91,31%</t>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
   </si>
   <si>
     <t>93,27%</t>
   </si>
   <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
+    <t>93,87%</t>
   </si>
   <si>
     <t>Población con cinco o más enfermedades crónicas en 2023 (Tasa respuesta: 100,0%)</t>
@@ -1013,55 +989,49 @@
     <t>9,3%</t>
   </si>
   <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
+    <t>14,93%</t>
   </si>
   <si>
     <t>22,39%</t>
   </si>
   <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
   </si>
   <si>
     <t>16,65%</t>
   </si>
   <si>
-    <t>13,44%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
   </si>
   <si>
     <t>90,7%</t>
   </si>
   <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
+    <t>85,07%</t>
   </si>
   <si>
     <t>77,61%</t>
   </si>
   <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
+    <t>71,45%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>83,35%</t>
   </si>
   <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
+    <t>79,06%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
   </si>
   <si>
     <t>10,78%</t>
@@ -1070,31 +1040,31 @@
     <t>8,59%</t>
   </si>
   <si>
-    <t>13,27%</t>
+    <t>13,36%</t>
   </si>
   <si>
     <t>16,4%</t>
   </si>
   <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
   </si>
   <si>
     <t>13,76%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>86,73%</t>
+    <t>86,64%</t>
   </si>
   <si>
     <t>91,41%</t>
@@ -1103,235 +1073,205 @@
     <t>83,6%</t>
   </si>
   <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>86,2%</t>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
   </si>
   <si>
     <t>86,24%</t>
   </si>
   <si>
-    <t>84,59%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
   </si>
   <si>
     <t>8,15%</t>
   </si>
   <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
   </si>
   <si>
     <t>15,71%</t>
   </si>
   <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>17,5%</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
+    <t>10,55%</t>
   </si>
   <si>
     <t>91,85%</t>
   </si>
   <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
   </si>
   <si>
     <t>84,29%</t>
   </si>
   <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
+    <t>82,5%</t>
+  </si>
+  <si>
+    <t>86,09%</t>
   </si>
   <si>
     <t>88,03%</t>
   </si>
   <si>
-    <t>86,78%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
+    <t>89,45%</t>
   </si>
   <si>
     <t>7,7%</t>
   </si>
   <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
   </si>
   <si>
     <t>25,68%</t>
   </si>
   <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>51,07%</t>
-  </si>
-  <si>
-    <t>17,5%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>36,73%</t>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>92,3%</t>
   </si>
   <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
   </si>
   <si>
     <t>74,32%</t>
   </si>
   <si>
-    <t>48,93%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>82,5%</t>
-  </si>
-  <si>
-    <t>63,27%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
+    <t>49,7%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
+    <t>10,5%</t>
   </si>
   <si>
     <t>18,22%</t>
   </si>
   <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
   </si>
   <si>
     <t>13,92%</t>
   </si>
   <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
+    <t>89,5%</t>
   </si>
   <si>
     <t>81,78%</t>
   </si>
   <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>83,94%</t>
+    <t>79,36%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
   </si>
   <si>
     <t>86,08%</t>
   </si>
   <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
   </si>
   <si>
     <t>8,7%</t>
   </si>
   <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
   </si>
   <si>
     <t>19,07%</t>
   </si>
   <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
+    <t>27,31%</t>
   </si>
   <si>
     <t>14,21%</t>
   </si>
   <si>
-    <t>12,6%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
   </si>
   <si>
     <t>91,3%</t>
   </si>
   <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
   </si>
   <si>
     <t>80,93%</t>
   </si>
   <si>
-    <t>71,77%</t>
-  </si>
-  <si>
-    <t>83,63%</t>
+    <t>72,69%</t>
   </si>
   <si>
     <t>85,79%</t>
   </si>
   <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>87,4%</t>
+    <t>81,04%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
   </si>
 </sst>
 </file>
@@ -1743,7 +1683,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFF64EB-FFC4-4F4B-9102-6FB40E01EB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36DC4126-2412-48E3-ACA2-0FA26908DC22}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2180,10 +2120,10 @@
         <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="H10" s="7">
         <v>51</v>
@@ -2231,10 +2171,10 @@
         <v>59</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>41</v>
       </c>
       <c r="H11" s="7">
         <v>857</v>
@@ -2335,10 +2275,10 @@
         <v>68</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>71</v>
@@ -2347,13 +2287,13 @@
         <v>69826</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="7">
         <v>94</v>
@@ -2362,13 +2302,13 @@
         <v>93497</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2323,13 @@
         <v>654838</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="H14" s="7">
         <v>625</v>
@@ -2398,13 +2338,13 @@
         <v>614015</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
         <v>1243</v>
@@ -2413,13 +2353,13 @@
         <v>1268853</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2415,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2487,13 +2427,13 @@
         <v>35402</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H16" s="7">
         <v>70</v>
@@ -2502,13 +2442,13 @@
         <v>73912</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>111</v>
@@ -2517,13 +2457,13 @@
         <v>109314</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2538,13 +2478,13 @@
         <v>906820</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H17" s="7">
         <v>927</v>
@@ -2553,13 +2493,13 @@
         <v>964700</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M17" s="7">
         <v>1880</v>
@@ -2568,13 +2508,13 @@
         <v>1871520</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2642,13 +2582,13 @@
         <v>111838</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H19" s="7">
         <v>218</v>
@@ -2657,13 +2597,13 @@
         <v>226549</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="M19" s="7">
         <v>334</v>
@@ -2672,13 +2612,13 @@
         <v>338386</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,16 +2630,16 @@
         <v>3098</v>
       </c>
       <c r="D20" s="7">
-        <v>3164705</v>
+        <v>3164706</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="H20" s="7">
         <v>3079</v>
@@ -2708,22 +2648,22 @@
         <v>3152649</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M20" s="7">
         <v>6177</v>
       </c>
       <c r="N20" s="7">
-        <v>6317355</v>
+        <v>6317354</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>119</v>
@@ -2741,7 +2681,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2771,7 +2711,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2806,7 +2746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2592DDB-CD3C-44BE-8A51-D76E5B531FAD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117FEB6A-7447-49E2-B3FC-C4EC55436219}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2936,7 +2876,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>54</v>
       </c>
       <c r="H4" s="7">
         <v>9</v>
@@ -2945,13 +2885,13 @@
         <v>9703</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="M4" s="7">
         <v>11</v>
@@ -2960,13 +2900,13 @@
         <v>11427</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,10 +2921,10 @@
         <v>114041</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>23</v>
@@ -2996,13 +2936,13 @@
         <v>102202</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>210</v>
@@ -3011,13 +2951,13 @@
         <v>216243</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,13 +3025,13 @@
         <v>25457</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H7" s="7">
         <v>52</v>
@@ -3100,13 +3040,13 @@
         <v>57166</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M7" s="7">
         <v>76</v>
@@ -3115,13 +3055,13 @@
         <v>82623</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3136,13 +3076,13 @@
         <v>562247</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>499</v>
@@ -3151,13 +3091,13 @@
         <v>527979</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>1027</v>
@@ -3166,10 +3106,10 @@
         <v>1090226</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>154</v>
@@ -3243,10 +3183,10 @@
         <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>157</v>
       </c>
       <c r="H10" s="7">
         <v>86</v>
@@ -3255,13 +3195,13 @@
         <v>93829</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="M10" s="7">
         <v>120</v>
@@ -3270,13 +3210,13 @@
         <v>130944</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3291,13 +3231,13 @@
         <v>980832</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>165</v>
-      </c>
       <c r="G11" s="7" t="s">
-        <v>166</v>
+        <v>46</v>
       </c>
       <c r="H11" s="7">
         <v>854</v>
@@ -3306,13 +3246,13 @@
         <v>938355</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1756</v>
@@ -3321,13 +3261,13 @@
         <v>1919187</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3395,13 +3335,13 @@
         <v>29129</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H13" s="7">
         <v>67</v>
@@ -3410,13 +3350,13 @@
         <v>72214</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M13" s="7">
         <v>93</v>
@@ -3425,13 +3365,13 @@
         <v>101343</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3446,10 +3386,10 @@
         <v>728494</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>182</v>
@@ -3538,7 +3478,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3550,7 +3490,7 @@
         <v>36427</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>189</v>
@@ -3583,10 +3523,10 @@
         <v>194</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>195</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3601,13 +3541,13 @@
         <v>911312</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>894</v>
@@ -3616,13 +3556,13 @@
         <v>933807</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>199</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1772</v>
@@ -3631,13 +3571,13 @@
         <v>1845119</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>203</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>204</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3705,13 +3645,13 @@
         <v>129852</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>323</v>
@@ -3720,13 +3660,13 @@
         <v>351006</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>441</v>
@@ -3735,13 +3675,13 @@
         <v>480858</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3756,13 +3696,13 @@
         <v>3296927</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="H20" s="7">
         <v>2975</v>
@@ -3771,13 +3711,13 @@
         <v>3207303</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="M20" s="7">
         <v>6066</v>
@@ -3786,10 +3726,10 @@
         <v>6504230</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>220</v>
@@ -3869,7 +3809,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3C2972-1702-4003-B3A1-DC8F8D1C0C9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{956C4596-FDD3-4D8A-ADE6-91B8486E6187}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4151,10 +4091,10 @@
         <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>190</v>
       </c>
       <c r="H7" s="7">
         <v>57</v>
@@ -4163,13 +4103,13 @@
         <v>60212</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>193</v>
       </c>
       <c r="M7" s="7">
         <v>78</v>
@@ -4178,13 +4118,13 @@
         <v>80388</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="P7" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4199,13 +4139,13 @@
         <v>538077</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>196</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="H8" s="7">
         <v>494</v>
@@ -4214,13 +4154,13 @@
         <v>499267</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M8" s="7">
         <v>1012</v>
@@ -4229,13 +4169,13 @@
         <v>1037345</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,13 +4243,13 @@
         <v>31958</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>204</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>77</v>
@@ -4318,13 +4258,13 @@
         <v>92794</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>110</v>
@@ -4333,13 +4273,13 @@
         <v>124752</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>263</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4354,13 +4294,13 @@
         <v>990473</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>264</v>
+        <v>214</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="H11" s="7">
         <v>900</v>
@@ -4369,13 +4309,13 @@
         <v>950119</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>97</v>
+        <v>263</v>
       </c>
       <c r="M11" s="7">
         <v>1818</v>
@@ -4384,13 +4324,13 @@
         <v>1940592</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>270</v>
+        <v>231</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4458,13 +4398,13 @@
         <v>25007</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="H13" s="7">
         <v>58</v>
@@ -4473,13 +4413,13 @@
         <v>66238</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="M13" s="7">
         <v>83</v>
@@ -4488,13 +4428,13 @@
         <v>91245</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4509,13 +4449,13 @@
         <v>734545</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H14" s="7">
         <v>678</v>
@@ -4524,13 +4464,13 @@
         <v>718773</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="M14" s="7">
         <v>1349</v>
@@ -4539,13 +4479,13 @@
         <v>1453318</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,7 +4541,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4616,10 +4556,10 @@
         <v>240</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4628,13 +4568,13 @@
         <v>113895</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="M16" s="7">
         <v>130</v>
@@ -4643,13 +4583,13 @@
         <v>147775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4664,13 +4604,13 @@
         <v>903687</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="H17" s="7">
         <v>862</v>
@@ -4679,13 +4619,13 @@
         <v>929884</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
       <c r="M17" s="7">
         <v>1761</v>
@@ -4694,13 +4634,13 @@
         <v>1833571</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4768,13 +4708,13 @@
         <v>119484</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="H19" s="7">
         <v>303</v>
@@ -4783,13 +4723,13 @@
         <v>347191</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>292</v>
+        <v>303</v>
       </c>
       <c r="M19" s="7">
         <v>424</v>
@@ -4798,13 +4738,13 @@
         <v>466675</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>313</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4819,13 +4759,13 @@
         <v>3274866</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="H20" s="7">
         <v>3035</v>
@@ -4834,13 +4774,13 @@
         <v>3197351</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M20" s="7">
         <v>6145</v>
@@ -4849,13 +4789,13 @@
         <v>6472217</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>320</v>
+        <v>167</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4932,7 +4872,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3E61905-71DA-417E-B1AE-E3661372CCEC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D8D442-A3B6-4D60-856A-ABABAE2C98AE}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4949,7 +4889,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5056,13 +4996,13 @@
         <v>9480</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>324</v>
+        <v>190</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H4" s="7">
         <v>67</v>
@@ -5071,13 +5011,13 @@
         <v>29270</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="M4" s="7">
         <v>83</v>
@@ -5086,13 +5026,13 @@
         <v>38750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5047,13 @@
         <v>92502</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>196</v>
       </c>
       <c r="H5" s="7">
         <v>176</v>
@@ -5122,13 +5062,13 @@
         <v>101463</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="M5" s="7">
         <v>278</v>
@@ -5137,13 +5077,13 @@
         <v>193965</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5151,13 @@
         <v>59275</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="H7" s="7">
         <v>214</v>
@@ -5226,13 +5166,13 @@
         <v>101696</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="M7" s="7">
         <v>299</v>
@@ -5241,13 +5181,13 @@
         <v>160971</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5202,13 @@
         <v>490548</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="H8" s="7">
         <v>784</v>
@@ -5277,13 +5217,13 @@
         <v>518271</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="M8" s="7">
         <v>1311</v>
@@ -5292,13 +5232,13 @@
         <v>1008819</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5366,13 +5306,13 @@
         <v>84681</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="H10" s="7">
         <v>289</v>
@@ -5381,13 +5321,13 @@
         <v>166521</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>403</v>
@@ -5396,13 +5336,13 @@
         <v>251202</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5417,13 +5357,13 @@
         <v>954567</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>1228</v>
@@ -5432,13 +5372,13 @@
         <v>893558</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>372</v>
+        <v>361</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>373</v>
+        <v>362</v>
       </c>
       <c r="M11" s="7">
         <v>2078</v>
@@ -5447,13 +5387,13 @@
         <v>1848125</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>375</v>
+        <v>330</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>376</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5521,13 +5461,13 @@
         <v>56094</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>179</v>
@@ -5536,13 +5476,13 @@
         <v>224512</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>368</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>381</v>
+        <v>369</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>242</v>
@@ -5551,13 +5491,13 @@
         <v>280606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>384</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5572,13 +5512,13 @@
         <v>672678</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="H14" s="7">
         <v>868</v>
@@ -5587,13 +5527,13 @@
         <v>649859</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="M14" s="7">
         <v>1481</v>
@@ -5602,13 +5542,13 @@
         <v>1322536</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>392</v>
+        <v>361</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>394</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,7 +5604,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5676,13 +5616,13 @@
         <v>84891</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>396</v>
+        <v>222</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="H16" s="7">
         <v>315</v>
@@ -5691,13 +5631,13 @@
         <v>209585</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>398</v>
+        <v>381</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="M16" s="7">
         <v>429</v>
@@ -5706,13 +5646,13 @@
         <v>294476</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>401</v>
+        <v>384</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>402</v>
+        <v>385</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>403</v>
+        <v>386</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5667,13 @@
         <v>880512</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>404</v>
+        <v>387</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>405</v>
+        <v>388</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>406</v>
+        <v>231</v>
       </c>
       <c r="H17" s="7">
         <v>1247</v>
@@ -5742,13 +5682,13 @@
         <v>940847</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>407</v>
+        <v>389</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>408</v>
+        <v>390</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>409</v>
+        <v>391</v>
       </c>
       <c r="M17" s="7">
         <v>2139</v>
@@ -5757,13 +5697,13 @@
         <v>1821359</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>410</v>
+        <v>392</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>411</v>
+        <v>393</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>412</v>
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5831,13 +5771,13 @@
         <v>294421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>413</v>
+        <v>395</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>414</v>
+        <v>396</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>415</v>
+        <v>397</v>
       </c>
       <c r="H19" s="7">
         <v>1064</v>
@@ -5846,13 +5786,13 @@
         <v>731583</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>416</v>
+        <v>398</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="M19" s="7">
         <v>1456</v>
@@ -5861,13 +5801,13 @@
         <v>1026004</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>420</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5882,13 +5822,13 @@
         <v>3090807</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>423</v>
+        <v>404</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="H20" s="7">
         <v>4303</v>
@@ -5897,28 +5837,28 @@
         <v>3103998</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>425</v>
+        <v>406</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>427</v>
+        <v>391</v>
       </c>
       <c r="M20" s="7">
         <v>7287</v>
       </c>
       <c r="N20" s="7">
-        <v>6194804</v>
+        <v>6194805</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>428</v>
+        <v>408</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>430</v>
+        <v>410</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5960,7 +5900,7 @@
         <v>8743</v>
       </c>
       <c r="N21" s="7">
-        <v>7220808</v>
+        <v>7220809</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
